--- a/biology/Médecine/1244_en_santé_et_médecine/1244_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1244_en_santé_et_médecine/1244_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1244_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1244_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1244 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1244_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1244_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,19 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Décembre : le roi de France Louis IX est gravement atteint de dysenterie, et il se croise en sortant de maladie[1].
-Nicholas Farnham (en) († 1257), médecin du roi d'Angleterre Henri III et de sa femme, est « atteint d'hydropisie, d'ictère et de consomption [amaigrissement], mais guérit miraculeusement après avoir bu de l'eau bénite, contenant des poils de la barbe d'Edmond, archevêque de Cantorbéry, qui, peu après, [sera] canonisé[2] ».
-Matthieu Paris, dans sa Grande Chronique, compte dix-neuf mille léproseries dans toute la chrétienté[3].
-Fondation de l'Hôpital des pauvres de Xàtiva au royaume de Valence, par Jacques Ier[4].
-Fondation à Florence en Toscane de l'hôpital San Paolo dei Convalescenti (it), tenu par des franciscains du tiers-ordre sous la direction de l'Arte dei Giudici e Notai[5].
-Maître Giovanni Cane fonde à Turin l'hôpital S. Cristoforo, tenu par les humiliés[6].
-La léproserie St. Mary Magdalene de Tavistock dans le Devon, en Angleterre, est mentionnée pour la première fois : six hommes et six femmes y sont enregistrés[7].
-Vers 1244 : fondation supposée, par la comtesse de Flandre, de l'infirmerie (ou béguinage) de la Vigne, près de Bruges[8].
-1244-1246 : construction de l'hôpital Saint-Vincent de Valence en Espagne[9].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Décembre : le roi de France Louis IX est gravement atteint de dysenterie, et il se croise en sortant de maladie.
+Nicholas Farnham (en) († 1257), médecin du roi d'Angleterre Henri III et de sa femme, est « atteint d'hydropisie, d'ictère et de consomption [amaigrissement], mais guérit miraculeusement après avoir bu de l'eau bénite, contenant des poils de la barbe d'Edmond, archevêque de Cantorbéry, qui, peu après, [sera] canonisé ».
+Matthieu Paris, dans sa Grande Chronique, compte dix-neuf mille léproseries dans toute la chrétienté.
+Fondation de l'Hôpital des pauvres de Xàtiva au royaume de Valence, par Jacques Ier.
+Fondation à Florence en Toscane de l'hôpital San Paolo dei Convalescenti (it), tenu par des franciscains du tiers-ordre sous la direction de l'Arte dei Giudici e Notai.
+Maître Giovanni Cane fonde à Turin l'hôpital S. Cristoforo, tenu par les humiliés.
+La léproserie St. Mary Magdalene de Tavistock dans le Devon, en Angleterre, est mentionnée pour la première fois : six hommes et six femmes y sont enregistrés.
+Vers 1244 : fondation supposée, par la comtesse de Flandre, de l'infirmerie (ou béguinage) de la Vigne, près de Bruges.
+1244-1246 : construction de l'hôpital Saint-Vincent de Valence en Espagne.</t>
         </is>
       </c>
     </row>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1244_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1244_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,10 +563,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Moshe ibn Tibbon († 1283) traduit d'arabe en hébreu le Fi tadbir al-sihhah de Maïmonide[10], traité de diététique dont Jean de Capoue donnera une version latine « dans les années 1294-1303 », sous le titre de Regimen ad regem hyspanie[11].
-Vincent de Beauvais achève une première version de son Speculum maius, encyclopédie qui « se réfère abondamment au Canon d'Avicenne, notamment à propos des plantes[12] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Moshe ibn Tibbon († 1283) traduit d'arabe en hébreu le Fi tadbir al-sihhah de Maïmonide, traité de diététique dont Jean de Capoue donnera une version latine « dans les années 1294-1303 », sous le titre de Regimen ad regem hyspanie.
+Vincent de Beauvais achève une première version de son Speculum maius, encyclopédie qui « se réfère abondamment au Canon d'Avicenne, notamment à propos des plantes ».</t>
         </is>
       </c>
     </row>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1244_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1244_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,10 +596,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Julien Gras, apothicaire, consul de Grenoble, en Dauphiné [13].
-Fl. Bernard, barbier du Caylar, dans le comté de Rouergue[14].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Julien Gras, apothicaire, consul de Grenoble, en Dauphiné .
+Fl. Bernard, barbier du Caylar, dans le comté de Rouergue.</t>
         </is>
       </c>
     </row>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1244_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1244_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,9 +629,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2 avril : Henrik Harpestreng (da) (né à une date inconnue), prêtre, botaniste et médecin danois, auteur du De simplicibus medicinis laxativis[14],[15].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2 avril : Henrik Harpestreng (da) (né à une date inconnue), prêtre, botaniste et médecin danois, auteur du De simplicibus medicinis laxativis,.</t>
         </is>
       </c>
     </row>
